--- a/Documentation/Datasheet.xlsx
+++ b/Documentation/Datasheet.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E006A72-5022-4AD4-8FEA-2314F75097C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F94B86-BA7E-4716-92A5-47147399D985}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Iteraction" sheetId="1" r:id="rId1"/>
-    <sheet name="Materials" sheetId="2" r:id="rId2"/>
-    <sheet name="Equipments" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteraction Objects" sheetId="1" r:id="rId1"/>
+    <sheet name="Item Objects" sheetId="2" r:id="rId2"/>
+    <sheet name="Craft Sheet" sheetId="4" r:id="rId3"/>
+    <sheet name="Item Information" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Interaction Objects</t>
   </si>
@@ -75,9 +76,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Material Name</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Stone</t>
   </si>
   <si>
@@ -109,6 +107,45 @@
   </si>
   <si>
     <t>Quality / Rarity</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>ID (IO)</t>
+  </si>
+  <si>
+    <t>IO-001</t>
+  </si>
+  <si>
+    <t>IO-002</t>
+  </si>
+  <si>
+    <t>IO-003</t>
+  </si>
+  <si>
+    <t>IO-004</t>
+  </si>
+  <si>
+    <t>IO-005</t>
+  </si>
+  <si>
+    <t>IO-006</t>
+  </si>
+  <si>
+    <t>IO-007</t>
+  </si>
+  <si>
+    <t>Item Info ID Ref</t>
+  </si>
+  <si>
+    <t>Item Category</t>
+  </si>
+  <si>
+    <t>Material</t>
   </si>
 </sst>
 </file>
@@ -150,10 +187,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -525,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -533,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -541,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -552,73 +590,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA17EBF0-226A-4EA3-B553-9B21A3048F5A}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A2973-4B47-411B-9935-57F5C7BFFABA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD19F280-34C2-468C-A957-9078C2549CCA}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -634,13 +737,13 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
